--- a/algorithm/doc/灵茶试炼.xlsx
+++ b/algorithm/doc/灵茶试炼.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="算法趣题" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="712">
   <si>
     <t>日期</t>
   </si>
@@ -15006,72 +15006,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://codeforces.com/problemset/problem/484/A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输入 t (t≤1e4) 表示 t 组数据，每组数据输入两个数 L 和 R (0≤L≤R≤1e18)。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对每组数据，输出在区间 [L,R] 内的二进制中的 1 的个数最多的那个数字，如果有多个这样的数字，输出最小的。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2972F4"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>思考：如果让你找的是 0 的个数最多的那个数字呢？（前导零不计）</t>
-    </r>
+    <t>https://codeforces.com/problemset/problem/484/A
+输入 t (t≤1e4) 表示 t 组数据，每组数据输入两个数 L 和 R (0≤L≤R≤1e18)。
+对每组数据，输出在区间 [L,R] 内的二进制中的 1 的个数最多的那个数字，如果有多个这样的数字，输出最小的。
+思考：如果让你找的是 0 的个数最多的那个数字呢？（前导零不计）</t>
   </si>
   <si>
     <t>输入
@@ -15083,6 +15021,9 @@
 1
 3
 7</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <r>
@@ -27602,7 +27543,7 @@
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="52">
+  <fonts count="54">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -27687,6 +27628,18 @@
       <sz val="10"/>
       <color rgb="FF175CEB"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF800080"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -28258,55 +28211,49 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -28315,98 +28262,104 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -28477,14 +28430,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -28492,10 +28445,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -28513,7 +28472,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -28604,7 +28563,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8420100" y="521236575"/>
+          <a:off x="8420100" y="520979400"/>
           <a:ext cx="2133600" cy="2533650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28637,7 +28596,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7038975" y="778049625"/>
+          <a:off x="7038975" y="777792450"/>
           <a:ext cx="1905000" cy="619125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28670,7 +28629,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7038975" y="792422850"/>
+          <a:off x="7038975" y="792165675"/>
           <a:ext cx="2143125" cy="1371600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28703,7 +28662,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8524875" y="377799600"/>
+          <a:off x="8524875" y="377542425"/>
           <a:ext cx="2886075" cy="3000375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28736,7 +28695,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17211675" y="698020575"/>
+          <a:off x="16234410" y="697763400"/>
           <a:ext cx="3810000" cy="1557655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28769,7 +28728,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1285875" y="607199700"/>
+          <a:off x="1285875" y="606942525"/>
           <a:ext cx="2914650" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28802,7 +28761,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9229725" y="576548250"/>
+          <a:off x="8993505" y="576291075"/>
           <a:ext cx="895350" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28835,7 +28794,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7038975" y="816483000"/>
+          <a:off x="7038975" y="816225825"/>
           <a:ext cx="1249680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28868,7 +28827,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24145875" y="527275425"/>
+          <a:off x="23168610" y="527018250"/>
           <a:ext cx="5295900" cy="3609975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28901,7 +28860,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8020050" y="619401225"/>
+          <a:off x="8020050" y="619144050"/>
           <a:ext cx="2362200" cy="2457450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28934,7 +28893,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1304925" y="432692175"/>
+          <a:off x="1304925" y="432435000"/>
           <a:ext cx="1657350" cy="1552575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28967,7 +28926,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24174450" y="429110775"/>
+          <a:off x="23197185" y="428853600"/>
           <a:ext cx="8458200" cy="4838700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29000,7 +28959,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1304925" y="614676825"/>
+          <a:off x="1304925" y="614419650"/>
           <a:ext cx="1295400" cy="1409700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29033,7 +28992,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8686800" y="405688800"/>
+          <a:off x="8686800" y="405431625"/>
           <a:ext cx="4800600" cy="1304925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29066,7 +29025,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8115300" y="592635975"/>
+          <a:off x="8115300" y="592378800"/>
           <a:ext cx="3810000" cy="1381125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29099,7 +29058,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24145875" y="749579400"/>
+          <a:off x="23168610" y="749322225"/>
           <a:ext cx="3962400" cy="2238375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29132,7 +29091,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8162925" y="580624950"/>
+          <a:off x="8162925" y="580367775"/>
           <a:ext cx="3810000" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29165,7 +29124,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7905750" y="321306825"/>
+          <a:off x="7905750" y="321049650"/>
           <a:ext cx="3810000" cy="2781300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29198,7 +29157,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8639175" y="663016200"/>
+          <a:off x="8639175" y="662759025"/>
           <a:ext cx="6515100" cy="2705100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29231,7 +29190,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8639175" y="665988000"/>
+          <a:off x="8639175" y="665730825"/>
           <a:ext cx="6496050" cy="2695575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29264,7 +29223,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24145875" y="550430700"/>
+          <a:off x="23168610" y="550173525"/>
           <a:ext cx="3810000" cy="3537585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29297,7 +29256,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8477250" y="502167525"/>
+          <a:off x="8477250" y="501910350"/>
           <a:ext cx="1676400" cy="1676400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29330,7 +29289,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7972425" y="312591450"/>
+          <a:off x="7972425" y="312334275"/>
           <a:ext cx="8743950" cy="3276600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29363,7 +29322,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1381125" y="436578375"/>
+          <a:off x="1381125" y="436321200"/>
           <a:ext cx="2667000" cy="2095500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29396,7 +29355,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7038975" y="757180350"/>
+          <a:off x="7038975" y="756923175"/>
           <a:ext cx="2266950" cy="2105025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29411,7 +29370,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -29670,26 +29629,26 @@
   <sheetPr/>
   <dimension ref="A1:AB411"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
+      <selection pane="bottomLeft" activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="76.75" customWidth="1"/>
-    <col min="3" max="3" width="97.25" customWidth="1"/>
+    <col min="3" max="3" width="25.65" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="71.025" customWidth="1"/>
     <col min="6" max="6" width="91" customWidth="1"/>
     <col min="7" max="7" width="142" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
     <col min="9" max="28" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60.75" spans="1:28">
+    <row r="1" ht="40.5" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -34347,7 +34306,7 @@
       <c r="A117" s="21">
         <v>44809</v>
       </c>
-      <c r="B117" s="18" t="s">
+      <c r="B117" s="24" t="s">
         <v>360</v>
       </c>
       <c r="C117" s="16" t="s">
@@ -34356,9 +34315,11 @@
       <c r="D117" s="9">
         <v>1700</v>
       </c>
-      <c r="E117" s="16"/>
+      <c r="E117" s="25" t="s">
+        <v>362</v>
+      </c>
       <c r="F117" s="23" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G117" s="15"/>
       <c r="H117" s="22"/>
@@ -34388,17 +34349,17 @@
         <v>44806</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D118" s="9">
         <v>1700</v>
       </c>
       <c r="E118" s="16"/>
       <c r="F118" s="23" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G118" s="15"/>
       <c r="H118" s="22"/>
@@ -34428,17 +34389,17 @@
         <v>44805</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D119" s="9">
         <v>1800</v>
       </c>
       <c r="E119" s="16"/>
       <c r="F119" s="23" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G119" s="15"/>
       <c r="H119" s="22"/>
@@ -34468,17 +34429,17 @@
         <v>44804</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D120" s="9">
         <v>1800</v>
       </c>
       <c r="E120" s="16"/>
       <c r="F120" s="23" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G120" s="15"/>
       <c r="H120" s="22"/>
@@ -34508,17 +34469,17 @@
         <v>44803</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E121" s="16"/>
       <c r="F121" s="23" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G121" s="15"/>
       <c r="H121" s="22"/>
@@ -34548,17 +34509,17 @@
         <v>44802</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E122" s="16"/>
       <c r="F122" s="23" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G122" s="15"/>
       <c r="H122" s="22"/>
@@ -34588,23 +34549,23 @@
         <v>44799</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D123" s="9">
         <v>1800</v>
       </c>
       <c r="E123" s="16"/>
       <c r="F123" s="23" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="H123" s="24" t="s">
         <v>384</v>
+      </c>
+      <c r="H123" s="26" t="s">
+        <v>385</v>
       </c>
       <c r="I123" s="11"/>
       <c r="J123" s="11"/>
@@ -34632,17 +34593,17 @@
         <v>44798</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D124" s="9">
         <v>1800</v>
       </c>
       <c r="E124" s="16"/>
       <c r="F124" s="23" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G124" s="15"/>
       <c r="H124" s="22"/>
@@ -34672,17 +34633,17 @@
         <v>44797</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D125" s="9">
         <v>1800</v>
       </c>
       <c r="E125" s="16"/>
-      <c r="F125" s="25" t="s">
-        <v>390</v>
+      <c r="F125" s="27" t="s">
+        <v>391</v>
       </c>
       <c r="G125" s="15"/>
       <c r="H125" s="22"/>
@@ -34712,17 +34673,17 @@
         <v>44796</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E126" s="16"/>
       <c r="F126" s="23" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G126" s="15"/>
       <c r="H126" s="22"/>
@@ -34752,17 +34713,17 @@
         <v>44795</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D127" s="9">
         <v>1800</v>
       </c>
       <c r="E127" s="16"/>
-      <c r="F127" s="26" t="s">
-        <v>397</v>
+      <c r="F127" s="28" t="s">
+        <v>398</v>
       </c>
       <c r="G127" s="15"/>
       <c r="H127" s="22"/>
@@ -34792,17 +34753,17 @@
         <v>44792</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D128" s="9">
         <v>1700</v>
       </c>
       <c r="E128" s="16"/>
-      <c r="F128" s="26" t="s">
-        <v>400</v>
+      <c r="F128" s="28" t="s">
+        <v>401</v>
       </c>
       <c r="G128" s="15"/>
       <c r="H128" s="22"/>
@@ -34832,20 +34793,20 @@
         <v>44791</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D129" s="9">
         <v>1700</v>
       </c>
       <c r="E129" s="16"/>
-      <c r="F129" s="27" t="s">
-        <v>403</v>
+      <c r="F129" s="29" t="s">
+        <v>404</v>
       </c>
       <c r="G129" s="15" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H129" s="22"/>
       <c r="I129" s="11"/>
@@ -34874,17 +34835,17 @@
         <v>44790</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D130" s="9">
         <v>1800</v>
       </c>
       <c r="E130" s="16"/>
       <c r="F130" s="23" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G130" s="9"/>
       <c r="H130" s="22"/>
@@ -34914,17 +34875,17 @@
         <v>44789</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D131" s="9">
         <v>1700</v>
       </c>
       <c r="E131" s="16"/>
       <c r="F131" s="23" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G131" s="9"/>
       <c r="H131" s="22"/>
@@ -34954,17 +34915,17 @@
         <v>44788</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D132" s="9">
         <v>1700</v>
       </c>
       <c r="E132" s="16"/>
       <c r="F132" s="23" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G132" s="9"/>
       <c r="H132" s="22"/>
@@ -34994,20 +34955,20 @@
         <v>44785</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D133" s="9">
         <v>1700</v>
       </c>
       <c r="E133" s="16"/>
       <c r="F133" s="23" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H133" s="22"/>
       <c r="I133" s="11"/>
@@ -35036,17 +34997,17 @@
         <v>44784</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D134" s="9">
         <v>1700</v>
       </c>
       <c r="E134" s="16"/>
       <c r="F134" s="23" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G134" s="9"/>
       <c r="H134" s="22"/>
@@ -35076,17 +35037,17 @@
         <v>44783</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D135" s="9">
         <v>2000</v>
       </c>
       <c r="E135" s="16"/>
       <c r="F135" s="23" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G135" s="9"/>
       <c r="H135" s="22"/>
@@ -35116,20 +35077,20 @@
         <v>44782</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D136" s="9">
         <v>1700</v>
       </c>
       <c r="E136" s="16"/>
       <c r="F136" s="23" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H136" s="22"/>
       <c r="I136" s="11"/>
@@ -35158,17 +35119,17 @@
         <v>44781</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D137" s="9">
         <v>1600</v>
       </c>
       <c r="E137" s="16"/>
       <c r="F137" s="23" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G137" s="9"/>
       <c r="H137" s="22"/>
@@ -35198,17 +35159,17 @@
         <v>44778</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D138" s="9">
         <v>1800</v>
       </c>
       <c r="E138" s="16"/>
       <c r="F138" s="23" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G138" s="9"/>
       <c r="H138" s="22"/>
@@ -35238,17 +35199,17 @@
         <v>44777</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E139" s="16"/>
       <c r="F139" s="23" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G139" s="9"/>
       <c r="H139" s="22"/>
@@ -35278,17 +35239,17 @@
         <v>44776</v>
       </c>
       <c r="B140" s="18" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D140" s="9">
         <v>1600</v>
       </c>
       <c r="E140" s="16"/>
       <c r="F140" s="23" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G140" s="9"/>
       <c r="H140" s="22"/>
@@ -35318,17 +35279,17 @@
         <v>44775</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D141" s="9">
         <v>1700</v>
       </c>
       <c r="E141" s="16"/>
       <c r="F141" s="23" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G141" s="9"/>
       <c r="H141" s="22"/>
@@ -35358,17 +35319,17 @@
         <v>44774</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D142" s="9">
         <v>1600</v>
       </c>
       <c r="E142" s="16"/>
       <c r="F142" s="23" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G142" s="9"/>
       <c r="H142" s="22"/>
@@ -35398,17 +35359,17 @@
         <v>44771</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D143" s="9">
         <v>1600</v>
       </c>
       <c r="E143" s="16"/>
       <c r="F143" s="23" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G143" s="9"/>
       <c r="H143" s="22"/>
@@ -35438,20 +35399,20 @@
         <v>44770</v>
       </c>
       <c r="B144" s="18" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D144" s="9">
         <v>1500</v>
       </c>
       <c r="E144" s="16"/>
       <c r="F144" s="23" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H144" s="22"/>
       <c r="I144" s="11"/>
@@ -35480,17 +35441,17 @@
         <v>44769</v>
       </c>
       <c r="B145" s="18" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D145" s="9">
         <v>1600</v>
       </c>
       <c r="E145" s="16"/>
       <c r="F145" s="23" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G145" s="8"/>
       <c r="H145" s="22"/>
@@ -35520,17 +35481,17 @@
         <v>44768</v>
       </c>
       <c r="B146" s="18" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E146" s="16"/>
       <c r="F146" s="23" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G146" s="8"/>
       <c r="H146" s="22"/>
@@ -35560,17 +35521,17 @@
         <v>44767</v>
       </c>
       <c r="B147" s="18" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D147" s="9">
         <v>1600</v>
       </c>
       <c r="E147" s="16"/>
       <c r="F147" s="23" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G147" s="8"/>
       <c r="H147" s="22"/>
@@ -35600,17 +35561,17 @@
         <v>44764</v>
       </c>
       <c r="B148" s="18" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D148" s="9">
         <v>1700</v>
       </c>
       <c r="E148" s="16"/>
       <c r="F148" s="23" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G148" s="8"/>
       <c r="H148" s="22"/>
@@ -35640,17 +35601,17 @@
         <v>44763</v>
       </c>
       <c r="B149" s="18" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D149" s="9">
         <v>1600</v>
       </c>
       <c r="E149" s="16"/>
       <c r="F149" s="23" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G149" s="8"/>
       <c r="H149" s="22"/>
@@ -35680,20 +35641,20 @@
         <v>44762</v>
       </c>
       <c r="B150" s="18" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D150" s="9">
         <v>1700</v>
       </c>
       <c r="E150" s="16"/>
       <c r="F150" s="23" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H150" s="22"/>
       <c r="I150" s="11"/>
@@ -35722,20 +35683,20 @@
         <v>44761</v>
       </c>
       <c r="B151" s="18" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D151" s="9">
         <v>1700</v>
       </c>
       <c r="E151" s="16"/>
-      <c r="F151" s="26" t="s">
-        <v>476</v>
+      <c r="F151" s="28" t="s">
+        <v>477</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H151" s="22"/>
       <c r="I151" s="11"/>
@@ -35764,17 +35725,17 @@
         <v>44760</v>
       </c>
       <c r="B152" s="18" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D152" s="9">
         <v>1600</v>
       </c>
       <c r="E152" s="16"/>
       <c r="F152" s="23" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G152" s="8"/>
       <c r="H152" s="22"/>
@@ -35804,17 +35765,17 @@
         <v>44757</v>
       </c>
       <c r="B153" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D153" s="9">
         <v>1500</v>
       </c>
       <c r="E153" s="16"/>
-      <c r="F153" s="26" t="s">
-        <v>483</v>
+      <c r="F153" s="28" t="s">
+        <v>484</v>
       </c>
       <c r="G153" s="8"/>
       <c r="H153" s="22"/>
@@ -35844,17 +35805,17 @@
         <v>44756</v>
       </c>
       <c r="B154" s="18" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D154" s="9">
         <v>1500</v>
       </c>
       <c r="E154" s="16"/>
       <c r="F154" s="23" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G154" s="8"/>
       <c r="H154" s="22"/>
@@ -35884,17 +35845,17 @@
         <v>44755</v>
       </c>
       <c r="B155" s="18" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D155" s="9">
         <v>1600</v>
       </c>
       <c r="E155" s="16"/>
       <c r="F155" s="23" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G155" s="8"/>
       <c r="H155" s="22"/>
@@ -35924,17 +35885,17 @@
         <v>44754</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D156" s="9">
         <v>1600</v>
       </c>
       <c r="E156" s="16"/>
       <c r="F156" s="20" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G156" s="8"/>
       <c r="H156" s="22"/>
@@ -35964,20 +35925,20 @@
         <v>44753</v>
       </c>
       <c r="B157" s="18" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D157" s="9">
         <v>1500</v>
       </c>
       <c r="E157" s="16"/>
       <c r="F157" s="9" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H157" s="22"/>
       <c r="I157" s="11"/>
@@ -36006,17 +35967,17 @@
         <v>44750</v>
       </c>
       <c r="B158" s="18" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D158" s="9">
         <v>1500</v>
       </c>
       <c r="E158" s="16"/>
       <c r="F158" s="18" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G158" s="8"/>
       <c r="H158" s="22"/>
@@ -36046,17 +36007,17 @@
         <v>44749</v>
       </c>
       <c r="B159" s="18" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D159" s="9">
         <v>1600</v>
       </c>
       <c r="E159" s="16"/>
       <c r="F159" s="20" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G159" s="8"/>
       <c r="H159" s="22"/>
@@ -36086,17 +36047,17 @@
         <v>44748</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D160" s="9">
         <v>1500</v>
       </c>
       <c r="E160" s="8"/>
       <c r="F160" s="18" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G160" s="8"/>
       <c r="H160" s="22"/>
@@ -36126,17 +36087,17 @@
         <v>44747</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D161" s="9">
         <v>1500</v>
       </c>
       <c r="E161" s="8"/>
       <c r="F161" s="18" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G161" s="8"/>
       <c r="H161" s="22"/>
@@ -36166,17 +36127,17 @@
         <v>44746</v>
       </c>
       <c r="B162" s="18" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D162" s="9">
         <v>1600</v>
       </c>
       <c r="E162" s="8"/>
       <c r="F162" s="18" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G162" s="8"/>
       <c r="H162" s="22"/>
@@ -36206,17 +36167,17 @@
         <v>44743</v>
       </c>
       <c r="B163" s="18" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D163" s="9">
         <v>1700</v>
       </c>
       <c r="E163" s="8"/>
       <c r="F163" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G163" s="8"/>
       <c r="H163" s="22"/>
@@ -36246,17 +36207,17 @@
         <v>44742</v>
       </c>
       <c r="B164" s="18" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D164" s="9">
         <v>1600</v>
       </c>
       <c r="E164" s="8"/>
       <c r="F164" s="9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G164" s="8"/>
       <c r="H164" s="22"/>
@@ -36286,17 +36247,17 @@
         <v>44741</v>
       </c>
       <c r="B165" s="18" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D165" s="9">
         <v>1700</v>
       </c>
       <c r="E165" s="8"/>
       <c r="F165" s="18" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G165" s="8"/>
       <c r="H165" s="22"/>
@@ -36326,17 +36287,17 @@
         <v>44740</v>
       </c>
       <c r="B166" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D166" s="9">
         <v>1700</v>
       </c>
       <c r="E166" s="8"/>
       <c r="F166" s="18" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G166" s="8"/>
       <c r="H166" s="22"/>
@@ -36366,17 +36327,17 @@
         <v>44739</v>
       </c>
       <c r="B167" s="18" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D167" s="9">
         <v>1700</v>
       </c>
       <c r="E167" s="8"/>
       <c r="F167" s="18" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G167" s="8"/>
       <c r="H167" s="22"/>
@@ -36406,20 +36367,20 @@
         <v>44736</v>
       </c>
       <c r="B168" s="18" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D168" s="9">
         <v>1800</v>
       </c>
       <c r="E168" s="8"/>
       <c r="F168" s="20" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G168" s="8" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H168" s="22"/>
       <c r="I168" s="11"/>
@@ -36448,20 +36409,20 @@
         <v>44735</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D169" s="9">
         <v>1800</v>
       </c>
       <c r="E169" s="8"/>
       <c r="F169" s="8" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H169" s="22"/>
       <c r="I169" s="11"/>
@@ -36490,17 +36451,17 @@
         <v>44942</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D170" s="9">
         <v>1800</v>
       </c>
       <c r="E170" s="8"/>
       <c r="F170" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G170" s="13"/>
       <c r="H170" s="22"/>
@@ -36530,19 +36491,19 @@
         <v>44734</v>
       </c>
       <c r="B171" s="18" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D171" s="9">
         <v>1800</v>
       </c>
       <c r="E171" s="8"/>
       <c r="F171" s="18" t="s">
-        <v>540</v>
-      </c>
-      <c r="G171" s="28"/>
+        <v>541</v>
+      </c>
+      <c r="G171" s="30"/>
       <c r="H171" s="22"/>
       <c r="I171" s="11"/>
       <c r="J171" s="11"/>
@@ -36570,19 +36531,19 @@
         <v>44733</v>
       </c>
       <c r="B172" s="18" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D172" s="9">
         <v>1800</v>
       </c>
       <c r="E172" s="8"/>
       <c r="F172" s="18" t="s">
-        <v>543</v>
-      </c>
-      <c r="G172" s="28"/>
+        <v>544</v>
+      </c>
+      <c r="G172" s="30"/>
       <c r="H172" s="22"/>
       <c r="I172" s="11"/>
       <c r="J172" s="11"/>
@@ -36610,19 +36571,19 @@
         <v>44732</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D173" s="9">
         <v>1700</v>
       </c>
       <c r="E173" s="8"/>
       <c r="F173" s="18" t="s">
-        <v>546</v>
-      </c>
-      <c r="G173" s="28"/>
+        <v>547</v>
+      </c>
+      <c r="G173" s="30"/>
       <c r="H173" s="22"/>
       <c r="I173" s="11"/>
       <c r="J173" s="11"/>
@@ -36650,19 +36611,19 @@
         <v>44729</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D174" s="9">
         <v>1800</v>
       </c>
       <c r="E174" s="8"/>
       <c r="F174" s="18" t="s">
-        <v>549</v>
-      </c>
-      <c r="G174" s="28"/>
+        <v>550</v>
+      </c>
+      <c r="G174" s="30"/>
       <c r="H174" s="22"/>
       <c r="I174" s="11"/>
       <c r="J174" s="11"/>
@@ -36690,19 +36651,19 @@
         <v>44728</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D175" s="9">
         <v>1800</v>
       </c>
       <c r="E175" s="8"/>
       <c r="F175" s="18" t="s">
-        <v>552</v>
-      </c>
-      <c r="G175" s="28"/>
+        <v>553</v>
+      </c>
+      <c r="G175" s="30"/>
       <c r="H175" s="22"/>
       <c r="I175" s="11"/>
       <c r="J175" s="11"/>
@@ -36730,19 +36691,19 @@
         <v>44727</v>
       </c>
       <c r="B176" s="18" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D176" s="9">
         <v>1800</v>
       </c>
       <c r="E176" s="9"/>
       <c r="F176" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="G176" s="28"/>
+        <v>556</v>
+      </c>
+      <c r="G176" s="30"/>
       <c r="H176" s="22"/>
       <c r="I176" s="11"/>
       <c r="J176" s="11"/>
@@ -36770,20 +36731,20 @@
         <v>44726</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D177" s="9">
         <v>1800</v>
       </c>
       <c r="E177" s="9"/>
       <c r="F177" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="G177" s="28" t="s">
         <v>559</v>
+      </c>
+      <c r="G177" s="30" t="s">
+        <v>560</v>
       </c>
       <c r="H177" s="22"/>
       <c r="I177" s="11"/>
@@ -36812,20 +36773,20 @@
         <v>44725</v>
       </c>
       <c r="B178" s="18" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D178" s="9">
         <v>1600</v>
       </c>
       <c r="E178" s="9"/>
       <c r="F178" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H178" s="22"/>
       <c r="I178" s="11"/>
@@ -36854,20 +36815,20 @@
         <v>44722</v>
       </c>
       <c r="B179" s="18" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E179" s="9"/>
       <c r="F179" s="18" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G179" s="9" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H179" s="22"/>
       <c r="I179" s="11"/>
@@ -36896,17 +36857,17 @@
         <v>44721</v>
       </c>
       <c r="B180" s="18" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D180" s="9">
         <v>1800</v>
       </c>
       <c r="E180" s="9"/>
       <c r="F180" s="18" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G180" s="18"/>
       <c r="H180" s="22"/>
@@ -36936,17 +36897,17 @@
         <v>44720</v>
       </c>
       <c r="B181" s="18" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D181" s="9">
         <v>1700</v>
       </c>
       <c r="E181" s="9"/>
       <c r="F181" s="18" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G181" s="18"/>
       <c r="H181" s="22"/>
@@ -36976,17 +36937,17 @@
         <v>44719</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D182" s="9">
         <v>1700</v>
       </c>
       <c r="E182" s="9"/>
       <c r="F182" s="18" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G182" s="18"/>
       <c r="H182" s="22"/>
@@ -37016,17 +36977,17 @@
         <v>44718</v>
       </c>
       <c r="B183" s="18" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D183" s="9">
         <v>1600</v>
       </c>
       <c r="E183" s="9"/>
       <c r="F183" s="18" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G183" s="18"/>
       <c r="H183" s="22"/>
@@ -37056,17 +37017,17 @@
         <v>44715</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D184" s="9">
         <v>1600</v>
       </c>
       <c r="E184" s="9"/>
       <c r="F184" s="9" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G184" s="18"/>
       <c r="H184" s="22"/>
@@ -37096,17 +37057,17 @@
         <v>44714</v>
       </c>
       <c r="B185" s="18" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D185" s="9">
         <v>1600</v>
       </c>
       <c r="E185" s="9"/>
       <c r="F185" s="18" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G185" s="18"/>
       <c r="H185" s="22"/>
@@ -37136,17 +37097,17 @@
         <v>44713</v>
       </c>
       <c r="B186" s="18" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D186" s="9">
         <v>1600</v>
       </c>
       <c r="E186" s="9"/>
       <c r="F186" s="18" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G186" s="18"/>
       <c r="H186" s="22"/>
@@ -37176,20 +37137,20 @@
         <v>44712</v>
       </c>
       <c r="B187" s="18" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D187" s="9">
         <v>2100</v>
       </c>
       <c r="E187" s="9"/>
       <c r="F187" s="18" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G187" s="18" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H187" s="22"/>
       <c r="I187" s="11"/>
@@ -37218,19 +37179,19 @@
         <v>44711</v>
       </c>
       <c r="B188" s="18" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D188" s="9">
         <v>1600</v>
       </c>
       <c r="E188" s="9"/>
       <c r="F188" s="18" t="s">
-        <v>596</v>
-      </c>
-      <c r="G188" s="29"/>
+        <v>597</v>
+      </c>
+      <c r="G188" s="31"/>
       <c r="H188" s="22"/>
       <c r="I188" s="11"/>
       <c r="J188" s="11"/>
@@ -37258,20 +37219,20 @@
         <v>44708</v>
       </c>
       <c r="B189" s="18" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D189" s="9">
         <v>1600</v>
       </c>
       <c r="E189" s="9"/>
       <c r="F189" s="18" t="s">
-        <v>599</v>
-      </c>
-      <c r="G189" s="29" t="s">
         <v>600</v>
+      </c>
+      <c r="G189" s="31" t="s">
+        <v>601</v>
       </c>
       <c r="H189" s="22"/>
       <c r="I189" s="11"/>
@@ -37300,19 +37261,19 @@
         <v>44707</v>
       </c>
       <c r="B190" s="18" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D190" s="9">
         <v>1700</v>
       </c>
       <c r="E190" s="9"/>
       <c r="F190" s="18" t="s">
-        <v>603</v>
-      </c>
-      <c r="G190" s="30"/>
+        <v>604</v>
+      </c>
+      <c r="G190" s="32"/>
       <c r="H190" s="22"/>
       <c r="I190" s="11"/>
       <c r="J190" s="11"/>
@@ -37340,19 +37301,19 @@
         <v>44706</v>
       </c>
       <c r="B191" s="18" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D191" s="9">
         <v>1700</v>
       </c>
       <c r="E191" s="9"/>
       <c r="F191" s="18" t="s">
-        <v>606</v>
-      </c>
-      <c r="G191" s="31"/>
+        <v>607</v>
+      </c>
+      <c r="G191" s="33"/>
       <c r="H191" s="22"/>
       <c r="I191" s="11"/>
       <c r="J191" s="11"/>
@@ -37380,17 +37341,17 @@
         <v>44705</v>
       </c>
       <c r="B192" s="18" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D192" s="9">
         <v>1800</v>
       </c>
       <c r="E192" s="9"/>
       <c r="F192" s="18" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G192" s="9"/>
       <c r="H192" s="22"/>
@@ -37420,17 +37381,17 @@
         <v>44704</v>
       </c>
       <c r="B193" s="18" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D193" s="9">
         <v>1800</v>
       </c>
       <c r="E193" s="9"/>
       <c r="F193" s="18" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G193" s="9"/>
       <c r="H193" s="22"/>
@@ -37460,17 +37421,17 @@
         <v>44701</v>
       </c>
       <c r="B194" s="18" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D194" s="9">
         <v>1800</v>
       </c>
       <c r="E194" s="9"/>
       <c r="F194" s="18" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G194" s="9"/>
       <c r="H194" s="22"/>
@@ -37500,17 +37461,17 @@
         <v>44700</v>
       </c>
       <c r="B195" s="18" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D195" s="9">
         <v>1700</v>
       </c>
       <c r="E195" s="9"/>
       <c r="F195" s="18" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G195" s="9"/>
       <c r="H195" s="22"/>
@@ -37540,20 +37501,20 @@
         <v>44699</v>
       </c>
       <c r="B196" s="18" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D196" s="9">
         <v>1700</v>
       </c>
       <c r="E196" s="9"/>
       <c r="F196" s="18" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G196" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H196" s="22"/>
       <c r="I196" s="11"/>
@@ -37582,17 +37543,17 @@
         <v>44698</v>
       </c>
       <c r="B197" s="18" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D197" s="9">
         <v>1600</v>
       </c>
       <c r="E197" s="9"/>
       <c r="F197" s="18" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G197" s="9"/>
       <c r="H197" s="22"/>
@@ -37622,17 +37583,17 @@
         <v>44697</v>
       </c>
       <c r="B198" s="18" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D198" s="9">
         <v>1800</v>
       </c>
       <c r="E198" s="9"/>
       <c r="F198" s="18" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G198" s="9"/>
       <c r="H198" s="22"/>
@@ -37662,17 +37623,17 @@
         <v>44694</v>
       </c>
       <c r="B199" s="18" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D199" s="9">
         <v>1600</v>
       </c>
       <c r="E199" s="9"/>
       <c r="F199" s="18" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G199" s="9"/>
       <c r="H199" s="22"/>
@@ -37702,17 +37663,17 @@
         <v>44693</v>
       </c>
       <c r="B200" s="18" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D200" s="9">
         <v>1700</v>
       </c>
       <c r="E200" s="9"/>
       <c r="F200" s="9" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G200" s="9"/>
       <c r="H200" s="22"/>
@@ -37742,17 +37703,17 @@
         <v>44692</v>
       </c>
       <c r="B201" s="18" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D201" s="9">
         <v>1600</v>
       </c>
       <c r="E201" s="9"/>
       <c r="F201" s="18" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G201" s="9"/>
       <c r="H201" s="22"/>
@@ -37782,17 +37743,17 @@
         <v>44691</v>
       </c>
       <c r="B202" s="18" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D202" s="9">
         <v>1500</v>
       </c>
       <c r="E202" s="9"/>
       <c r="F202" s="18" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="G202" s="9"/>
       <c r="H202" s="22"/>
@@ -37822,17 +37783,17 @@
         <v>44690</v>
       </c>
       <c r="B203" s="18" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D203" s="9">
         <v>1700</v>
       </c>
       <c r="E203" s="9"/>
       <c r="F203" s="18" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G203" s="9"/>
       <c r="H203" s="22"/>
@@ -37862,17 +37823,17 @@
         <v>44687</v>
       </c>
       <c r="B204" s="18" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D204" s="9">
         <v>1700</v>
       </c>
       <c r="E204" s="9"/>
       <c r="F204" s="18" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G204" s="9"/>
       <c r="H204" s="22"/>
@@ -37902,17 +37863,17 @@
         <v>44686</v>
       </c>
       <c r="B205" s="18" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D205" s="9">
         <v>1700</v>
       </c>
       <c r="E205" s="9"/>
       <c r="F205" s="18" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G205" s="9"/>
       <c r="H205" s="22"/>
@@ -37972,20 +37933,20 @@
         <v>44685</v>
       </c>
       <c r="B207" s="18" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D207" s="9">
         <v>1600</v>
       </c>
       <c r="E207" s="9"/>
       <c r="F207" s="18" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G207" s="9" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H207" s="22"/>
       <c r="I207" s="11"/>
@@ -38013,18 +37974,18 @@
       <c r="A208" s="21">
         <v>44684</v>
       </c>
-      <c r="B208" s="32" t="s">
-        <v>654</v>
+      <c r="B208" s="34" t="s">
+        <v>655</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D208" s="9">
         <v>1900</v>
       </c>
       <c r="E208" s="9"/>
       <c r="F208" s="9" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G208" s="18"/>
       <c r="H208" s="11"/>
@@ -38053,18 +38014,18 @@
       <c r="A209" s="21">
         <v>44683</v>
       </c>
-      <c r="B209" s="32" t="s">
-        <v>657</v>
+      <c r="B209" s="34" t="s">
+        <v>658</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D209" s="9">
         <v>1700</v>
       </c>
       <c r="E209" s="9"/>
       <c r="F209" s="9" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G209" s="18"/>
       <c r="H209" s="11"/>
@@ -38093,18 +38054,18 @@
       <c r="A210" s="21">
         <v>44680</v>
       </c>
-      <c r="B210" s="33" t="s">
-        <v>660</v>
+      <c r="B210" s="35" t="s">
+        <v>661</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D210" s="9">
         <v>1800</v>
       </c>
       <c r="E210" s="9"/>
       <c r="F210" s="9" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G210" s="9"/>
       <c r="H210" s="11"/>
@@ -38133,21 +38094,21 @@
       <c r="A211" s="21">
         <v>44679</v>
       </c>
-      <c r="B211" s="33" t="s">
-        <v>663</v>
-      </c>
-      <c r="C211" s="34" t="s">
+      <c r="B211" s="35" t="s">
         <v>664</v>
+      </c>
+      <c r="C211" s="36" t="s">
+        <v>665</v>
       </c>
       <c r="D211" s="9">
         <v>1208</v>
       </c>
-      <c r="E211" s="34"/>
+      <c r="E211" s="36"/>
       <c r="F211" s="9" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G211" s="9" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H211" s="11"/>
       <c r="I211" s="11"/>
@@ -38176,20 +38137,20 @@
         <v>44678</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C212" s="9" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D212" s="9">
         <v>2000</v>
       </c>
       <c r="E212" s="9"/>
       <c r="F212" s="9" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G212" s="9" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H212" s="11"/>
       <c r="I212" s="11"/>
@@ -38218,17 +38179,17 @@
         <v>44677</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C213" s="9" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D213" s="11">
         <v>2000</v>
       </c>
       <c r="E213" s="9"/>
       <c r="F213" s="9" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G213" s="11"/>
       <c r="H213" s="11"/>
@@ -38258,17 +38219,17 @@
         <v>44676</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D214" s="11">
         <v>2000</v>
       </c>
       <c r="E214" s="9"/>
       <c r="F214" s="9" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G214" s="11"/>
       <c r="H214" s="11"/>
@@ -38298,17 +38259,17 @@
         <v>44673</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D215" s="9">
         <v>1800</v>
       </c>
       <c r="E215" s="9"/>
-      <c r="F215" s="29" t="s">
-        <v>679</v>
+      <c r="F215" s="31" t="s">
+        <v>680</v>
       </c>
       <c r="G215" s="11"/>
       <c r="H215" s="11"/>
@@ -38338,17 +38299,17 @@
         <v>44672</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D216" s="11">
         <v>1900</v>
       </c>
       <c r="E216" s="9"/>
-      <c r="F216" s="29" t="s">
-        <v>682</v>
+      <c r="F216" s="31" t="s">
+        <v>683</v>
       </c>
       <c r="G216" s="11"/>
       <c r="H216" s="11"/>
@@ -38378,17 +38339,17 @@
         <v>44671</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D217" s="11">
         <v>1600</v>
       </c>
       <c r="E217" s="9"/>
       <c r="F217" s="18" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G217" s="11"/>
       <c r="H217" s="11"/>
@@ -38418,20 +38379,20 @@
         <v>44670</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C218" s="9" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E218" s="9"/>
       <c r="F218" s="18" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G218" s="9" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H218" s="11"/>
       <c r="I218" s="11"/>
@@ -38460,17 +38421,17 @@
         <v>44669</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D219" s="11">
         <v>1500</v>
       </c>
       <c r="E219" s="9"/>
       <c r="F219" s="18" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G219" s="11"/>
       <c r="H219" s="11"/>
@@ -38500,15 +38461,15 @@
         <v>44666</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C220" s="9" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D220" s="11"/>
       <c r="E220" s="9"/>
       <c r="F220" s="9" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G220" s="11"/>
       <c r="H220" s="11"/>
@@ -38538,7 +38499,7 @@
         <v>44665</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C221" s="11"/>
       <c r="D221" s="11"/>
@@ -38572,15 +38533,15 @@
         <v>44664</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C222" s="9" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D222" s="11"/>
       <c r="E222" s="9"/>
       <c r="F222" s="9" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G222" s="11"/>
       <c r="H222" s="11"/>
@@ -38610,15 +38571,15 @@
         <v>44663</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D223" s="11"/>
       <c r="E223" s="9"/>
       <c r="F223" s="9" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G223" s="11"/>
       <c r="H223" s="11"/>
@@ -38648,15 +38609,15 @@
         <v>44662</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D224" s="11"/>
       <c r="E224" s="9"/>
       <c r="F224" s="9" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="G224" s="11"/>
       <c r="H224" s="11"/>
@@ -38686,13 +38647,13 @@
         <v>44659</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C225" s="9"/>
       <c r="D225" s="11"/>
       <c r="E225" s="9"/>
       <c r="F225" s="18" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G225" s="11"/>
       <c r="H225" s="11"/>
@@ -38718,17 +38679,17 @@
       <c r="AB225" s="11"/>
     </row>
     <row r="226" ht="30" customHeight="1" spans="1:28">
-      <c r="A226" s="35"/>
-      <c r="B226" s="36" t="s">
-        <v>709</v>
-      </c>
-      <c r="C226" s="36" t="s">
-        <v>709</v>
+      <c r="A226" s="37"/>
+      <c r="B226" s="38" t="s">
+        <v>710</v>
+      </c>
+      <c r="C226" s="38" t="s">
+        <v>710</v>
       </c>
       <c r="D226" s="11"/>
-      <c r="E226" s="36"/>
-      <c r="F226" s="36" t="s">
-        <v>710</v>
+      <c r="E226" s="38"/>
+      <c r="F226" s="38" t="s">
+        <v>711</v>
       </c>
       <c r="G226" s="11"/>
       <c r="H226" s="11"/>
@@ -38755,11 +38716,11 @@
     </row>
     <row r="227" ht="16.5" spans="1:28">
       <c r="A227" s="21"/>
-      <c r="B227" s="37"/>
+      <c r="B227" s="39"/>
       <c r="C227" s="11"/>
       <c r="D227" s="11"/>
       <c r="E227" s="11"/>
-      <c r="F227" s="29"/>
+      <c r="F227" s="31"/>
       <c r="G227" s="11"/>
       <c r="H227" s="11"/>
       <c r="I227" s="11"/>
